--- a/2022/Samsung/Others/DMS Imei List/02.02.2022 DMS Imei for Mugdho Corporation Natore.xlsx
+++ b/2022/Samsung/Others/DMS Imei List/02.02.2022 DMS Imei for Mugdho Corporation Natore.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
